--- a/Forth iteration/系统测试用例.xlsx
+++ b/Forth iteration/系统测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54600\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GitHub\SJTU2020AutumnProj\document\Forth iteration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15B1D93-B3E9-441E-B394-E8D0D956D1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C3A5E-FF69-475A-96C4-E92F75CAAE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="443">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1482,22 +1482,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓝浩宁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>boxin-testcase-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3418,6 +3402,26 @@
         <charset val="134"/>
       </rPr>
       <t>秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小箱交云作业平台开发小组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小箱交云作业平台开发小组</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4008,38 +4012,17 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4089,6 +4072,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4101,6 +4087,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4112,8 +4116,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4127,20 +4137,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4562,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4580,80 +4584,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="76" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="77"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="77"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="74">
+      <c r="B5" s="67">
         <v>3</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="77"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
@@ -4661,10 +4665,10 @@
       <c r="B7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="3" t="s">
         <v>207</v>
       </c>
@@ -4678,8 +4682,10 @@
       <c r="B8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="D8" s="73"/>
       <c r="E8" s="3" t="s">
         <v>207</v>
       </c>
@@ -4693,8 +4699,8 @@
       <c r="B9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="3" t="s">
         <v>207</v>
       </c>
@@ -4705,22 +4711,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="8" t="s">
         <v>165</v>
       </c>
@@ -4735,10 +4741,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="59">
+      <c r="B12" s="79">
         <v>44180</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="31" t="s">
         <v>166</v>
       </c>
@@ -4746,15 +4752,15 @@
         <v>256</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -4762,8 +4768,8 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -4771,8 +4777,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -4780,8 +4786,8 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -4789,8 +4795,8 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -4798,21 +4804,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="28" t="s">
         <v>212</v>
       </c>
@@ -4828,10 +4834,10 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="10">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
         <v>33</v>
@@ -4850,10 +4856,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="10">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>0</v>
@@ -4872,10 +4878,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="10">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>0</v>
@@ -4894,10 +4900,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="10">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>0</v>
@@ -4916,10 +4922,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="10">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -4938,10 +4944,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>0</v>
@@ -4960,10 +4966,10 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="10">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>2</v>
@@ -4982,10 +4988,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="10">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>1</v>
@@ -5002,10 +5008,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="10">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>1</v>
@@ -5022,13 +5028,13 @@
     </row>
     <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="10">
-        <f>65535-COUNTBLANK('Test Cases'!C:C)</f>
-        <v>-983003</v>
+        <f>SUM(D20:D28)</f>
+        <v>37</v>
       </c>
       <c r="E29" s="10">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
@@ -5101,6 +5107,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C20"/>
@@ -5117,23 +5140,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5151,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5271,31 +5277,31 @@
     </row>
     <row r="5" spans="1:42" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>169</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="I5" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="7"/>
@@ -5307,29 +5313,29 @@
     </row>
     <row r="6" spans="1:42" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>301</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>302</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="7"/>
@@ -5341,31 +5347,31 @@
     </row>
     <row r="7" spans="1:42" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>169</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="I7" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -5378,31 +5384,31 @@
     </row>
     <row r="8" spans="1:42" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>169</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="I8" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="7"/>
@@ -5415,31 +5421,31 @@
     </row>
     <row r="9" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D9" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>317</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>318</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5453,31 +5459,31 @@
     </row>
     <row r="10" spans="1:42" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>314</v>
-      </c>
       <c r="G10" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>320</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>321</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -5491,31 +5497,31 @@
     </row>
     <row r="11" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D11" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G11" s="46" t="s">
+      <c r="H11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>323</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>324</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -5528,31 +5534,31 @@
     </row>
     <row r="12" spans="1:42" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G12" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>325</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>326</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -5565,31 +5571,31 @@
     </row>
     <row r="13" spans="1:42" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D13" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" s="46" t="s">
+      <c r="H13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>328</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>329</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -5599,31 +5605,31 @@
     </row>
     <row r="14" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="48" t="s">
+      <c r="G14" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="46" t="s">
+      <c r="H14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>331</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>332</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -5633,31 +5639,31 @@
     </row>
     <row r="15" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F15" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>337</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>338</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -5667,31 +5673,31 @@
     </row>
     <row r="16" spans="1:42" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D16" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>340</v>
-      </c>
       <c r="G16" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>342</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>343</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -5701,31 +5707,31 @@
     </row>
     <row r="17" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D17" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="H17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>350</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>351</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5735,31 +5741,31 @@
     </row>
     <row r="18" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D18" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="48" t="s">
         <v>356</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>357</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -5769,29 +5775,29 @@
     </row>
     <row r="19" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="48" t="s">
         <v>359</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>360</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -5801,29 +5807,29 @@
     </row>
     <row r="20" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -5833,29 +5839,29 @@
     </row>
     <row r="21" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -5865,29 +5871,29 @@
     </row>
     <row r="22" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -5897,29 +5903,29 @@
     </row>
     <row r="23" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -5929,29 +5935,29 @@
     </row>
     <row r="24" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24" s="48" t="s">
         <v>377</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>378</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -5961,29 +5967,29 @@
     </row>
     <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -5993,29 +5999,29 @@
     </row>
     <row r="26" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I26" s="47" t="s">
         <v>383</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>384</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -6025,29 +6031,29 @@
     </row>
     <row r="27" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I27" s="48" t="s">
         <v>386</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>387</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -6057,29 +6063,29 @@
     </row>
     <row r="28" spans="1:14" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -6089,29 +6095,29 @@
     </row>
     <row r="29" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I29" s="48" t="s">
         <v>392</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>393</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -6121,29 +6127,29 @@
     </row>
     <row r="30" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D30" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="48" t="s">
         <v>395</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>396</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="48" t="s">
         <v>397</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>398</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -6153,29 +6159,29 @@
     </row>
     <row r="31" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -6185,29 +6191,29 @@
     </row>
     <row r="32" spans="1:14" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I32" s="48" t="s">
         <v>404</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>405</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -6217,29 +6223,29 @@
     </row>
     <row r="33" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D33" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="48" t="s">
         <v>408</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>409</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I33" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>411</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -6249,29 +6255,29 @@
     </row>
     <row r="34" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E34" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="48" t="s">
         <v>408</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>409</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I34" s="48" t="s">
         <v>414</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>415</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -6281,29 +6287,29 @@
     </row>
     <row r="35" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D35" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>417</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>418</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -6313,29 +6319,29 @@
     </row>
     <row r="36" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I36" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -6345,29 +6351,29 @@
     </row>
     <row r="37" spans="1:14" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>424</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>425</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -6377,29 +6383,29 @@
     </row>
     <row r="38" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>426</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>427</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="I38" s="48" t="s">
         <v>429</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>430</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -6409,29 +6415,29 @@
     </row>
     <row r="39" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E39" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -6441,26 +6447,26 @@
     </row>
     <row r="40" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -6471,26 +6477,26 @@
     </row>
     <row r="41" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -10990,10 +10996,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="83"/>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -11030,19 +11036,19 @@
       <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="85"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -11050,85 +11056,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="86"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="86" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -11136,61 +11142,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="86"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="87" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -11198,25 +11204,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="86"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="86" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -11224,28 +11230,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="84"/>
+      <c r="B44" s="86"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -11256,13 +11262,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="84"/>
+      <c r="B46" s="86"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="86" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -11270,37 +11276,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
+      <c r="A48" s="86"/>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="86"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="84"/>
+      <c r="B52" s="86"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="87" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -11308,37 +11314,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="88"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="88"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="88"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="87"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="86"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="87" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -11346,25 +11352,25 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
+      <c r="A60" s="88"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="87"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="84"/>
+      <c r="B62" s="86"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="86" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -11372,31 +11378,31 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="84"/>
+      <c r="B67" s="86"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="86" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -11404,37 +11410,37 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="84"/>
+      <c r="B73" s="86"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="86" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -11442,16 +11448,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="88"/>
+      <c r="B77" s="85"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -11506,21 +11512,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="88" t="s">
+      <c r="A87" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="88"/>
-      <c r="C87" s="88"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="90"/>
+      <c r="B88" s="84"/>
       <c r="C88" s="91"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="87" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -11531,7 +11537,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
+      <c r="A90" s="88"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -11540,7 +11546,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
+      <c r="A91" s="88"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -11549,7 +11555,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+      <c r="A92" s="88"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -11558,7 +11564,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
+      <c r="A93" s="88"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -11567,7 +11573,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+      <c r="A94" s="88"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -11576,7 +11582,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="87"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -11585,14 +11591,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="90"/>
+      <c r="B96" s="84"/>
       <c r="C96" s="91"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="85" t="s">
+      <c r="A97" s="87" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -11603,7 +11609,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="86"/>
+      <c r="A98" s="88"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -11612,7 +11618,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A99" s="87"/>
+      <c r="A99" s="89"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -11621,21 +11627,21 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="88" t="s">
+      <c r="A101" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="84" t="s">
+      <c r="A102" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="86"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="83" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -11646,7 +11652,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="92"/>
+      <c r="A104" s="83"/>
       <c r="B104" s="2" t="s">
         <v>115</v>
       </c>
@@ -11655,7 +11661,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
+      <c r="A105" s="83"/>
       <c r="B105" s="2" t="s">
         <v>116</v>
       </c>
@@ -11664,7 +11670,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="92"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -11673,7 +11679,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="92"/>
+      <c r="A107" s="83"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -11682,7 +11688,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="92"/>
+      <c r="A108" s="83"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -11691,14 +11697,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="84"/>
-      <c r="C109" s="84"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="86"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="87" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11709,7 +11715,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
+      <c r="A111" s="89"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -11718,14 +11724,14 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="84"/>
+      <c r="C112" s="84"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="86" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -11736,7 +11742,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="84"/>
+      <c r="A114" s="86"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -11745,7 +11751,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="84"/>
+      <c r="A115" s="86"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -11754,7 +11760,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="84"/>
+      <c r="A116" s="86"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -11763,14 +11769,14 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="84" t="s">
+      <c r="A117" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="84"/>
-      <c r="C117" s="84"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="85" t="s">
+      <c r="A118" s="87" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -11781,7 +11787,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="87"/>
+      <c r="A119" s="89"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -11790,14 +11796,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="B120" s="84"/>
-      <c r="C120" s="84"/>
+      <c r="B120" s="86"/>
+      <c r="C120" s="86"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="87" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -11808,7 +11814,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
+      <c r="A122" s="88"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -11817,7 +11823,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
+      <c r="A123" s="88"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -11826,7 +11832,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
+      <c r="A124" s="88"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -11835,7 +11841,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
+      <c r="A125" s="88"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -11844,7 +11850,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
+      <c r="A126" s="88"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -11853,7 +11859,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="86"/>
+      <c r="A127" s="88"/>
       <c r="B127" s="2" t="s">
         <v>138</v>
       </c>
@@ -11862,7 +11868,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="86"/>
+      <c r="A128" s="88"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -11871,7 +11877,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="86"/>
+      <c r="A129" s="88"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -11880,7 +11886,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="86"/>
+      <c r="A130" s="88"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -11889,7 +11895,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="87"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -11898,21 +11904,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="88" t="s">
+      <c r="A133" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="B133" s="88"/>
-      <c r="C133" s="88"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="B134" s="84"/>
-      <c r="C134" s="84"/>
+      <c r="B134" s="86"/>
+      <c r="C134" s="86"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="92" t="s">
+      <c r="A135" s="83" t="s">
         <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -11923,7 +11929,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="92"/>
+      <c r="A136" s="83"/>
       <c r="B136" s="2" t="s">
         <v>177</v>
       </c>
@@ -11932,14 +11938,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="84" t="s">
+      <c r="A137" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B137" s="84"/>
-      <c r="C137" s="84"/>
+      <c r="B137" s="86"/>
+      <c r="C137" s="86"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="92" t="s">
+      <c r="A138" s="83" t="s">
         <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -11950,7 +11956,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="92"/>
+      <c r="A139" s="83"/>
       <c r="B139" s="2" t="s">
         <v>184</v>
       </c>
@@ -11959,14 +11965,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="90" t="s">
+      <c r="A140" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="90"/>
-      <c r="C140" s="90"/>
+      <c r="B140" s="84"/>
+      <c r="C140" s="84"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="92" t="s">
+      <c r="A141" s="83" t="s">
         <v>181</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -11977,7 +11983,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="92"/>
+      <c r="A142" s="83"/>
       <c r="B142" s="2" t="s">
         <v>177</v>
       </c>
@@ -11987,13 +11993,30 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A120:C120"/>
@@ -12010,30 +12033,13 @@
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="A89:A95"/>
     <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Forth iteration/系统测试用例.xlsx
+++ b/Forth iteration/系统测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GitHub\SJTU2020AutumnProj\document\Forth iteration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C3A5E-FF69-475A-96C4-E92F75CAAE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636ADDA7-29DA-4B59-85DE-F22D50C613E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="461">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1900,9 +1900,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统能够正常访问和操作</t>
-  </si>
-  <si>
     <t>用户登录成功，跳转至主页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3351,58 +3348,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>用户提交作业压力测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个并发提交请求</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>系统功能正常</t>
-  </si>
-  <si>
-    <t>用户提交作业压力测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个并发提交请求</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统功能正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统最长响应时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3423,6 +3388,209 @@
       </rPr>
       <t>小箱交云作业平台开发小组</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性测试</t>
+  </si>
+  <si>
+    <t>易用性测试</t>
+  </si>
+  <si>
+    <t>boxin-testcase-038</t>
+  </si>
+  <si>
+    <t>boxin-testcase-039</t>
+  </si>
+  <si>
+    <t>boxin-testcase-040</t>
+  </si>
+  <si>
+    <t>作业提交性能测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试</t>
+  </si>
+  <si>
+    <t>测试单次作业提交时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统最长响应时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统最长响应时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够正常访问和操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页兼容性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上访问网页</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端显示正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上访问网页</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>firefox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上访问网页</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxin-testcase-041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxin-testcase-042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4012,17 +4180,41 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4072,9 +4264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4083,27 +4272,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4116,14 +4284,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4137,14 +4299,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4566,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4584,80 +4752,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="71"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="67">
+      <c r="B5" s="75">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
@@ -4665,10 +4833,10 @@
       <c r="B7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="3" t="s">
         <v>207</v>
       </c>
@@ -4682,10 +4850,10 @@
       <c r="B8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8" s="73"/>
+      <c r="C8" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="51"/>
       <c r="E8" s="3" t="s">
         <v>207</v>
       </c>
@@ -4699,8 +4867,8 @@
       <c r="B9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="3" t="s">
         <v>207</v>
       </c>
@@ -4711,22 +4879,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="8" t="s">
         <v>165</v>
       </c>
@@ -4741,10 +4909,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="79">
+      <c r="B12" s="60">
         <v>44180</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="31" t="s">
         <v>166</v>
       </c>
@@ -4752,15 +4920,15 @@
         <v>256</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -4768,8 +4936,8 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -4777,8 +4945,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -4786,8 +4954,8 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -4795,8 +4963,8 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -4804,21 +4972,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="28" t="s">
         <v>212</v>
       </c>
@@ -4834,10 +5002,10 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="10">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
         <v>33</v>
@@ -4856,13 +5024,13 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="10">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B21)*('Test Cases'!K:K="Y"))</f>
@@ -4878,13 +5046,13 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="10">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B22)*('Test Cases'!K:K="Y"))</f>
@@ -4900,10 +5068,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="10">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>0</v>
@@ -4922,10 +5090,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="10">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -4944,13 +5112,13 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="10">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B25)*('Test Cases'!K:K="Y"))</f>
@@ -4966,13 +5134,13 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="10">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B26)*('Test Cases'!K:K="Y"))</f>
@@ -4988,10 +5156,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="10">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>1</v>
@@ -5008,10 +5176,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="10">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>1</v>
@@ -5028,13 +5196,13 @@
     </row>
     <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="10">
         <f>SUM(D20:D28)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E29" s="10">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
@@ -5107,6 +5275,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B23:C23"/>
@@ -5123,23 +5308,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5157,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP904"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5301,7 +5469,7 @@
         <v>295</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="7"/>
@@ -5371,7 +5539,7 @@
         <v>305</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="7"/>
@@ -5408,7 +5576,7 @@
         <v>308</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="7"/>
@@ -5421,31 +5589,31 @@
     </row>
     <row r="9" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5462,28 +5630,28 @@
         <v>261</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>314</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>315</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>319</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>320</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -5500,28 +5668,28 @@
         <v>262</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G11" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>322</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>323</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -5537,28 +5705,28 @@
         <v>263</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G12" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>324</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>325</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -5574,28 +5742,28 @@
         <v>264</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G13" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>327</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>328</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -5608,28 +5776,28 @@
         <v>265</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G14" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>330</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>331</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -5642,28 +5810,28 @@
         <v>266</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F15" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>336</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -5676,28 +5844,28 @@
         <v>267</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G16" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>341</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>342</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -5710,28 +5878,28 @@
         <v>268</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>349</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>350</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5744,28 +5912,28 @@
         <v>269</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="48" t="s">
         <v>355</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -5778,26 +5946,26 @@
         <v>270</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -5810,26 +5978,26 @@
         <v>271</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -5842,26 +6010,26 @@
         <v>272</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -5874,26 +6042,26 @@
         <v>273</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -5906,26 +6074,26 @@
         <v>274</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -5938,26 +6106,26 @@
         <v>275</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" s="48" t="s">
         <v>376</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>377</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -5970,26 +6138,26 @@
         <v>276</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -6002,26 +6170,26 @@
         <v>277</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" s="47" t="s">
         <v>382</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>383</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -6034,26 +6202,26 @@
         <v>278</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="48" t="s">
         <v>385</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>386</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -6066,26 +6234,26 @@
         <v>279</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -6098,26 +6266,26 @@
         <v>280</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I29" s="48" t="s">
         <v>391</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>392</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -6130,26 +6298,26 @@
         <v>281</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I30" s="48" t="s">
         <v>396</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>397</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -6162,26 +6330,26 @@
         <v>282</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -6194,26 +6362,26 @@
         <v>283</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I32" s="48" t="s">
         <v>403</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>404</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -6226,26 +6394,26 @@
         <v>284</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D33" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="48" t="s">
         <v>407</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>408</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I33" s="48" t="s">
         <v>409</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>410</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -6258,26 +6426,26 @@
         <v>285</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E34" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="48" t="s">
         <v>407</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>408</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I34" s="48" t="s">
         <v>413</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>414</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -6290,26 +6458,26 @@
         <v>286</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D35" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>416</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>417</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -6322,26 +6490,26 @@
         <v>287</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I36" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -6354,26 +6522,26 @@
         <v>288</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>423</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>424</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -6386,26 +6554,26 @@
         <v>289</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>425</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>426</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="I38" s="48" t="s">
         <v>428</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>429</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -6418,26 +6586,26 @@
         <v>290</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E39" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -6450,25 +6618,25 @@
         <v>291</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E40" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="I40" s="7"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48" t="s">
+        <v>451</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -6480,105 +6648,175 @@
         <v>292</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>297</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="I41" s="7"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46" t="s">
+        <v>450</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="35"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="7"/>
+    <row r="42" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>448</v>
+      </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46" t="s">
+        <v>449</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="35"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="7"/>
+    <row r="43" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>448</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="48" t="s">
+        <v>454</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="35"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="7"/>
+    <row r="44" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>448</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="48" t="s">
+        <v>454</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="35"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="7"/>
+    <row r="45" spans="1:14" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>448</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="I45" s="48" t="s">
+        <v>454</v>
+      </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="35"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="7"/>
+    <row r="46" spans="1:14" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>448</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="I46" s="48" t="s">
+        <v>454</v>
+      </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -10952,15 +11190,15 @@
     <mergeCell ref="A1:N3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$X$5:$X$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K65536" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C65536" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>"单元测试,功能测试,界面测试,压力测试,部署测试"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C65536" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>"功能测试,性能测试,易用性测试,可靠性测试,安全性测试,兼容性测试,界面测试,压力测试,部署测试,单元测试"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E834" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"高,中,低"</formula1>
@@ -10968,8 +11206,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L880" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Null(无缺陷),Urgent(严重错误),High(主要错误),Medium(一般错误),Low(微小错误)"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{6457D5BA-CAFA-4EA5-9EA7-5B2DEA7B8558}">
+      <formula1>"功能测试,性能测试,易用性测试,可靠性测试,安全性测试,兼容性测试,界面测试,压力测试,部署测试,单元测试"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -10996,10 +11238,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="83"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -11036,19 +11278,19 @@
       <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="85"/>
+      <c r="B10" s="88"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="84" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -11056,85 +11298,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="84"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="84" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -11142,61 +11384,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="84"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="85" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -11204,25 +11446,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="84"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -11230,28 +11472,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="86"/>
+      <c r="B44" s="84"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -11262,13 +11504,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="86"/>
+      <c r="B46" s="84"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="84" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -11276,37 +11518,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="86"/>
+      <c r="B52" s="84"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="85" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -11314,37 +11556,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="86"/>
+      <c r="B58" s="84"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="85" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -11352,25 +11594,25 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="88"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="86"/>
+      <c r="B62" s="84"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="84" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -11378,31 +11620,31 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="86"/>
+      <c r="B67" s="84"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86" t="s">
+      <c r="A68" s="84" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -11410,37 +11652,37 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="86"/>
+      <c r="B73" s="84"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="84" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -11448,16 +11690,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="85"/>
+      <c r="B77" s="88"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -11512,21 +11754,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="88"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="84"/>
-      <c r="C88" s="91"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="92"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -11537,7 +11779,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="88"/>
+      <c r="A90" s="86"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -11546,7 +11788,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="88"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -11555,7 +11797,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="88"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -11564,7 +11806,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="88"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -11573,7 +11815,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="88"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -11582,7 +11824,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="89"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -11591,14 +11833,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="91"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="92"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="87" t="s">
+      <c r="A97" s="85" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -11609,7 +11851,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="88"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -11618,7 +11860,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A99" s="89"/>
+      <c r="A99" s="87"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -11627,21 +11869,21 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="88"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="86" t="s">
+      <c r="A102" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="86"/>
-      <c r="C102" s="86"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="90" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -11652,7 +11894,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="2" t="s">
         <v>115</v>
       </c>
@@ -11661,7 +11903,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="2" t="s">
         <v>116</v>
       </c>
@@ -11670,7 +11912,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -11679,7 +11921,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -11688,7 +11930,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="83"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -11697,14 +11939,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="86" t="s">
+      <c r="A109" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="86"/>
-      <c r="C109" s="86"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="84"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="87" t="s">
+      <c r="A110" s="85" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11715,7 +11957,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="89"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -11724,14 +11966,14 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84" t="s">
+      <c r="A112" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="84"/>
-      <c r="C112" s="84"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="86" t="s">
+      <c r="A113" s="84" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -11742,7 +11984,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -11751,7 +11993,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -11760,7 +12002,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -11769,14 +12011,14 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="86" t="s">
+      <c r="A117" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="86"/>
-      <c r="C117" s="86"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="84"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="87" t="s">
+      <c r="A118" s="85" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -11787,7 +12029,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="89"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -11796,14 +12038,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="86" t="s">
+      <c r="A120" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="84"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="87" t="s">
+      <c r="A121" s="85" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -11814,7 +12056,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="88"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -11823,7 +12065,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="88"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -11832,7 +12074,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="88"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -11841,7 +12083,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="88"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -11850,7 +12092,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="88"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -11859,7 +12101,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="88"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="2" t="s">
         <v>138</v>
       </c>
@@ -11868,7 +12110,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="88"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -11877,7 +12119,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="88"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -11886,7 +12128,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="88"/>
+      <c r="A130" s="86"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -11895,7 +12137,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="89"/>
+      <c r="A131" s="87"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -11904,21 +12146,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="88"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="86" t="s">
+      <c r="A134" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="B134" s="86"/>
-      <c r="C134" s="86"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="84"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="83" t="s">
+      <c r="A135" s="90" t="s">
         <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -11929,7 +12171,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="83"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="2" t="s">
         <v>177</v>
       </c>
@@ -11938,14 +12180,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="B137" s="86"/>
-      <c r="C137" s="86"/>
+      <c r="B137" s="84"/>
+      <c r="C137" s="84"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="83" t="s">
+      <c r="A138" s="90" t="s">
         <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -11956,7 +12198,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="83"/>
+      <c r="A139" s="90"/>
       <c r="B139" s="2" t="s">
         <v>184</v>
       </c>
@@ -11965,14 +12207,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="84" t="s">
+      <c r="A140" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="84"/>
-      <c r="C140" s="84"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="83" t="s">
+      <c r="A141" s="90" t="s">
         <v>181</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -11983,7 +12225,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="83"/>
+      <c r="A142" s="90"/>
       <c r="B142" s="2" t="s">
         <v>177</v>
       </c>
@@ -11993,15 +12235,28 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A40:A43"/>
@@ -12018,28 +12273,15 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:A131"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
